--- a/data/trans_dic/P19_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>69,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>78,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>77,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,49%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>78,08%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>86,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>71,66%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>84,92%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 42,39</t>
+          <t>38,66; 89,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 47,18</t>
+          <t>62,26; 91,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 20,88</t>
+          <t>77,4; 97,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 52,83</t>
+          <t>24,18; 81,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 30,81</t>
+          <t>85,15; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 26,93</t>
+          <t>65,9; 91,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 25,79</t>
+          <t>62,18; 89,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 21,03</t>
+          <t>71,84; 91,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 33,31</t>
+          <t>71,9; 94,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 34,31</t>
+          <t>63,57; 90,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 21,53</t>
+          <t>57,48; 85,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 31,29</t>
+          <t>67,61; 87,4</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>78,33; 92,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>47,63; 85,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>74,05; 92,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>86,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>77,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>83,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>79,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,11%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>81,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>87,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 20,15</t>
+          <t>84,34; 93,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 23,59</t>
+          <t>73,41; 86,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,86</t>
+          <t>81,35; 92,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 22,21</t>
+          <t>69,26; 89,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 22,99</t>
+          <t>79,32; 91,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,88; 24,61</t>
+          <t>72,4; 84,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 20,58</t>
+          <t>71,41; 83,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,57</t>
+          <t>73,77; 85,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,74; 20,15</t>
+          <t>74,56; 86,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,87</t>
+          <t>84,49; 93,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 17,72</t>
+          <t>79,71; 87,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,52</t>
+          <t>75,08; 83,92</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>79,62; 87,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>74,25; 86,46</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>83,65; 91,27</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>85,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>85,11%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>80,37%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>86,18%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>89,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 27,2</t>
+          <t>75,86; 89,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,04</t>
+          <t>77,26; 90,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 21,96</t>
+          <t>75,37; 88,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 19,87</t>
+          <t>79,35; 92,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 31,91</t>
+          <t>83,29; 94,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 21,93</t>
+          <t>67,76; 81,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 30,09</t>
+          <t>79,3; 89,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 17,7</t>
+          <t>70,76; 83,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,9; 28,43</t>
+          <t>79,98; 90,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 20,22</t>
+          <t>82,39; 92,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 24,46</t>
+          <t>73,82; 82,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 17,27</t>
+          <t>80,78; 88,99</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>75,21; 84,55</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>81,81; 89,79</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>84,98; 92,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 16,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 22,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 25,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,58; 18,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 22,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 19,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>84,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82,14%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80,21%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>88,77%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>77,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>83,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81,46%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>82,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>81,87%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>87,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77,55; 88,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77,38; 86,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82,22; 89,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70,29; 86,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84,45; 92,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73,3; 81,47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76,52; 84,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>75,52; 83,11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78,93; 86,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82,71; 90,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76,86; 83,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78,53; 84,48</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>79,76; 85,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>76,07; 85,49</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>85,12; 90,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67156</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97251</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91059</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61812</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115223</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93924</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>106578</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92656</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101253</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>158585</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>161080</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>203829</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>183714</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>163065</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>273807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37442; 86363</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77295; 113917</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78263; 98372</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26519; 89558</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>103224; 121229</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>76244; 105479</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>85127; 122081</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>80318; 102413</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84777; 111255</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>127893; 181337</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>122171; 182146</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>176490; 228145</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>166772; 197096</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>108381; 193748</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>238748; 297071</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>306154</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>346080</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>331430</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>326603</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>439248</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>300256</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>357905</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>301285</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>290668</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>440229</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>606410</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>703986</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>632714</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>617270</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>879477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>288808; 321343</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>313379; 369494</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>306081; 347612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>274372; 355701</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>403826; 466698</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>275748; 321356</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>328614; 383821</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>277355; 321921</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>268971; 312687</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>415226; 458034</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>576547; 635582</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>666013; 744396</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>598968; 661404</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>562040; 654462</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>836980; 913219</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>238358</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>282692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>232995</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>236788</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>315877</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>266381</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>357032</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>264770</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>278250</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>349382</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>504739</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>639724</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>497766</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>515039</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>665260</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>216889; 255424</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>257180; 300162</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>211109; 248248</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>217108; 251765</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>291644; 331547</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>242252; 289814</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>332059; 376725</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>240032; 283464</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>259160; 294576</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>326442; 366509</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>474986; 532894</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>607151; 668881</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>465806; 523656</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>488923; 536643</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>634290; 689039</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>583.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>611669</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>726024</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>655484</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>625203</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>870348</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>660561</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>821516</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>658710</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>670171</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>948195</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1272230</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1547539</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1314194</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1295374</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1818545</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>562386; 642014</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>683996; 762527</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>622781; 680827</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>547895; 675960</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>828064; 904135</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>626059; 695832</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>777316; 858189</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>624568; 687356</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>633602; 697875</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>900567; 981649</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1213877; 1315973</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1491768; 1604906</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1263715; 1354688</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1203591; 1352565</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1761446; 1870762</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
